--- a/docs/word/wordBook.xlsx
+++ b/docs/word/wordBook.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zytosk9a\Google Drive\GitHub\JapaneseWeb2019\docs\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B2DEBB-5548-4C18-B0A4-DE0406DBADD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B28E6-D08F-4D40-A24E-2B6A3CA3DD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E221875-D46E-437E-ACFC-499D0A54EF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1E221875-D46E-437E-ACFC-499D0A54EF42}"/>
   </bookViews>
   <sheets>
     <sheet name="animal" sheetId="3" r:id="rId1"/>
+    <sheet name="place" sheetId="4" r:id="rId2"/>
+    <sheet name="number" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
-  <si>
-    <t>どうぶつ</t>
-  </si>
-  <si>
-    <t>動物 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="321">
   <si>
     <t>いぬ</t>
   </si>
@@ -345,9 +341,6 @@
     <t>蛇 </t>
   </si>
   <si>
-    <t xml:space="preserve"> สัตว์ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> สุนัข </t>
   </si>
   <si>
@@ -507,9 +500,6 @@
     <t xml:space="preserve"> งู </t>
   </si>
   <si>
-    <t>โดบุสึ</t>
-  </si>
-  <si>
     <t>อินุ</t>
   </si>
   <si>
@@ -691,19 +681,346 @@
   </si>
   <si>
     <t>りゅう , たつ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ศูนย์ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หนึ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สอง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สาม </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สี่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ห้า </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หก </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เจ็ด </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> แปด </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เก้า </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สิบ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ร้อย </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พัน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หมื่น </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หนึ่งร้อยล้าน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หนึ่ง, ของหนึ่งสิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สอง, ของสองสิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สาม, ของสามสิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สี่, ของสี่สิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ห้า, ของห้าสิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หก, ของหกสิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เจ็ด, ของเจ็ดสิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> แปด, ของแปดสิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เก้า, ของเก้าสิ่ง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สิบ, ของสิบสิ่ง </t>
+  </si>
+  <si>
+    <t>เร, เซะโระ</t>
+  </si>
+  <si>
+    <t>อิชิ</t>
+  </si>
+  <si>
+    <t>นิ</t>
+  </si>
+  <si>
+    <t>ซัง</t>
+  </si>
+  <si>
+    <t>ยง, ชิ</t>
+  </si>
+  <si>
+    <t>โกะ</t>
+  </si>
+  <si>
+    <t>โระกุ</t>
+  </si>
+  <si>
+    <t>นะนะ, ชิชิ</t>
+  </si>
+  <si>
+    <t>ฮะชิ</t>
+  </si>
+  <si>
+    <t>คีว, คุ</t>
+  </si>
+  <si>
+    <t>จู</t>
+  </si>
+  <si>
+    <t>เฮียะกุ</t>
+  </si>
+  <si>
+    <t>เซ็ง</t>
+  </si>
+  <si>
+    <t>มัง</t>
+  </si>
+  <si>
+    <t>โอะกุ</t>
+  </si>
+  <si>
+    <t>ฮิโตะสึ</t>
+  </si>
+  <si>
+    <t>ฟุตะสึ</t>
+  </si>
+  <si>
+    <t>มิตสึ</t>
+  </si>
+  <si>
+    <t>ยตสึ</t>
+  </si>
+  <si>
+    <t>อิสึสึ</t>
+  </si>
+  <si>
+    <t>มุตสึ</t>
+  </si>
+  <si>
+    <t>นะนะสึ</t>
+  </si>
+  <si>
+    <t>ยัตสึ</t>
+  </si>
+  <si>
+    <t>โคะโกะโนะสึ</t>
+  </si>
+  <si>
+    <t>โท</t>
+  </si>
+  <si>
+    <t>れい</t>
+  </si>
+  <si>
+    <t>ゼロ</t>
+  </si>
+  <si>
+    <t>零 </t>
+  </si>
+  <si>
+    <t>いち</t>
+  </si>
+  <si>
+    <t>一 </t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>二 </t>
+  </si>
+  <si>
+    <t>さん</t>
+  </si>
+  <si>
+    <t>三 </t>
+  </si>
+  <si>
+    <t>よん</t>
+  </si>
+  <si>
+    <t>し</t>
+  </si>
+  <si>
+    <t>四 </t>
+  </si>
+  <si>
+    <t>ご</t>
+  </si>
+  <si>
+    <t>五 </t>
+  </si>
+  <si>
+    <t>ろく</t>
+  </si>
+  <si>
+    <t>六 </t>
+  </si>
+  <si>
+    <t>なな</t>
+  </si>
+  <si>
+    <t>しち</t>
+  </si>
+  <si>
+    <t>七 </t>
+  </si>
+  <si>
+    <t>はち</t>
+  </si>
+  <si>
+    <t>八 </t>
+  </si>
+  <si>
+    <t>きゅう</t>
+  </si>
+  <si>
+    <t>く</t>
+  </si>
+  <si>
+    <t>九 </t>
+  </si>
+  <si>
+    <t>じゅう</t>
+  </si>
+  <si>
+    <t>十 </t>
+  </si>
+  <si>
+    <t>ひゃく</t>
+  </si>
+  <si>
+    <t>百 </t>
+  </si>
+  <si>
+    <t>せん</t>
+  </si>
+  <si>
+    <t>千 </t>
+  </si>
+  <si>
+    <t>まん</t>
+  </si>
+  <si>
+    <t>万 </t>
+  </si>
+  <si>
+    <t>おく</t>
+  </si>
+  <si>
+    <t>億 </t>
+  </si>
+  <si>
+    <t>ひとつ</t>
+  </si>
+  <si>
+    <t>一つ </t>
+  </si>
+  <si>
+    <t>ふたつ</t>
+  </si>
+  <si>
+    <t>二つ </t>
+  </si>
+  <si>
+    <t>みっつ</t>
+  </si>
+  <si>
+    <t>三つ </t>
+  </si>
+  <si>
+    <t>よっつ</t>
+  </si>
+  <si>
+    <t>四つ </t>
+  </si>
+  <si>
+    <t>いつつ</t>
+  </si>
+  <si>
+    <t>五つ </t>
+  </si>
+  <si>
+    <t>むっつ</t>
+  </si>
+  <si>
+    <t>六つ </t>
+  </si>
+  <si>
+    <t>ななつ</t>
+  </si>
+  <si>
+    <t>七つ </t>
+  </si>
+  <si>
+    <t>やっつ</t>
+  </si>
+  <si>
+    <t>八つ </t>
+  </si>
+  <si>
+    <t>ここのつ</t>
+  </si>
+  <si>
+    <t>九つ </t>
+  </si>
+  <si>
+    <t>とお</t>
+  </si>
+  <si>
+    <t>九つ – เก้า, ของเก้าสิ่ง (โคะโกะโนะสึ)</t>
+  </si>
+  <si>
+    <t>十 – สิบ, ของสิบสิ่ง (โท)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA55858"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0B0080"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -726,8 +1043,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF906347-552D-4986-B383-0A3631B9CBA4}">
   <dimension ref="A2:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1057,776 +1380,1198 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29942925-C469-4B7B-8A21-B57936AB119A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706FC362-48DC-458C-8E01-C3E9C43C65C9}">
+  <dimension ref="A2:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="D27" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="D28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/word/wordBook.xlsx
+++ b/docs/word/wordBook.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zytosk9a\Google Drive\GitHub\JapaneseWeb2019\docs\word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B28E6-D08F-4D40-A24E-2B6A3CA3DD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF5873-6456-4962-81F8-7B2EFE2B2548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1E221875-D46E-437E-ACFC-499D0A54EF42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{1E221875-D46E-437E-ACFC-499D0A54EF42}"/>
   </bookViews>
   <sheets>
     <sheet name="animal" sheetId="3" r:id="rId1"/>
-    <sheet name="place" sheetId="4" r:id="rId2"/>
-    <sheet name="number" sheetId="5" r:id="rId3"/>
+    <sheet name="location" sheetId="4" r:id="rId2"/>
+    <sheet name="time" sheetId="8" r:id="rId3"/>
+    <sheet name="food" sheetId="6" r:id="rId4"/>
+    <sheet name="number" sheetId="5" r:id="rId5"/>
+    <sheet name="family" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="652">
   <si>
     <t>いぬ</t>
   </si>
@@ -996,17 +999,1010 @@
   </si>
   <si>
     <t>十 – สิบ, ของสิบสิ่ง (โท)</t>
+  </si>
+  <si>
+    <t>たべもの</t>
+  </si>
+  <si>
+    <t>ちょうしょく</t>
+  </si>
+  <si>
+    <t>ひるごはん</t>
+  </si>
+  <si>
+    <t>ばんごはん</t>
+  </si>
+  <si>
+    <t>ごはん</t>
+  </si>
+  <si>
+    <t>みそ</t>
+  </si>
+  <si>
+    <t>りょうり</t>
+  </si>
+  <si>
+    <t>おやつ</t>
+  </si>
+  <si>
+    <t>食べ物 </t>
+  </si>
+  <si>
+    <t>朝食 </t>
+  </si>
+  <si>
+    <t>昼御飯 </t>
+  </si>
+  <si>
+    <t>晩御飯 </t>
+  </si>
+  <si>
+    <t>御飯 </t>
+  </si>
+  <si>
+    <t>味噌 </t>
+  </si>
+  <si>
+    <t>料理 </t>
+  </si>
+  <si>
+    <t>間食 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> อาหาร </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> อาหารเช้า </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> อาหารกลางวัน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> อาหารค่ำ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ข้าวสุก หรือ อาหาร </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ซุปมิโซะ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> การทำอาหาร </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ขนมขบเคี้ยว </t>
+  </si>
+  <si>
+    <t>ทะเบะโมะโนะ</t>
+  </si>
+  <si>
+    <t>โชโชะกุ</t>
+  </si>
+  <si>
+    <t>ฮิรุโกะฮัง</t>
+  </si>
+  <si>
+    <t>บังโกะฮัง</t>
+  </si>
+  <si>
+    <t>โกะฮัง</t>
+  </si>
+  <si>
+    <t>มิโซะ</t>
+  </si>
+  <si>
+    <t>เรียวริ</t>
+  </si>
+  <si>
+    <t>โอะยะสึ</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>りょうしん</t>
+  </si>
+  <si>
+    <t>こども</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>はは</t>
+  </si>
+  <si>
+    <t>つま</t>
+  </si>
+  <si>
+    <t>おっと</t>
+  </si>
+  <si>
+    <t>あに</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>きょうだい</t>
+  </si>
+  <si>
+    <t>しまい</t>
+  </si>
+  <si>
+    <t>そふ</t>
+  </si>
+  <si>
+    <t>そぼ</t>
+  </si>
+  <si>
+    <t>まご</t>
+  </si>
+  <si>
+    <t>おじ</t>
+  </si>
+  <si>
+    <t>おば</t>
+  </si>
+  <si>
+    <t>いとこ</t>
+  </si>
+  <si>
+    <t>めい</t>
+  </si>
+  <si>
+    <t>おい</t>
+  </si>
+  <si>
+    <t>家族 </t>
+  </si>
+  <si>
+    <t>両親 </t>
+  </si>
+  <si>
+    <t>子供 </t>
+  </si>
+  <si>
+    <t>父 </t>
+  </si>
+  <si>
+    <t>母 </t>
+  </si>
+  <si>
+    <t>妻 </t>
+  </si>
+  <si>
+    <t>夫 </t>
+  </si>
+  <si>
+    <t>兄 </t>
+  </si>
+  <si>
+    <t>姉 </t>
+  </si>
+  <si>
+    <t>弟 </t>
+  </si>
+  <si>
+    <t>妹 </t>
+  </si>
+  <si>
+    <t>兄弟 </t>
+  </si>
+  <si>
+    <t>姉妹 </t>
+  </si>
+  <si>
+    <t>祖父 </t>
+  </si>
+  <si>
+    <t>祖母 </t>
+  </si>
+  <si>
+    <t>孫 </t>
+  </si>
+  <si>
+    <t>姪 </t>
+  </si>
+  <si>
+    <t>甥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เวลา </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ชั่วโมง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ปฏิทิน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> นาที </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วินาที </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วัน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เดือน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ปี </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เมื่อวาน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วันนี้ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พรุ่งนี้ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ตอนเช้า </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ตอนเที่ยง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ตอนเย็น </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ตอนเย็น, กลางคืน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วัน... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วันจันทร์ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วังอังคาร </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วันพุธ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วันพฤหัสบดี </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วันศุกร์ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วันเสาร์ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> วันอาทิตย์ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สัปดาห์ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หนึ่งสัปดาห์ </t>
+  </si>
+  <si>
+    <t>จิกัง</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>โทะกิ, จิ</t>
+  </si>
+  <si>
+    <t>โคะโยะมิ, คะเร็นดา</t>
+  </si>
+  <si>
+    <t>ฟุง</t>
+  </si>
+  <si>
+    <t>เบียว</t>
+  </si>
+  <si>
+    <t>ฮิ, นิชิ</t>
+  </si>
+  <si>
+    <t>สึกิ, เกะสึ</t>
+  </si>
+  <si>
+    <t>โทะชิ, เน็ง</t>
+  </si>
+  <si>
+    <t>คิโน, ซะกุจิสึ</t>
+  </si>
+  <si>
+    <t>เคียว</t>
+  </si>
+  <si>
+    <t>อะชิตะ, อะซุ, เมียวนิชิ</t>
+  </si>
+  <si>
+    <t>อะซะ</t>
+  </si>
+  <si>
+    <t>ฮิรุ</t>
+  </si>
+  <si>
+    <t>ยูงะตะ</t>
+  </si>
+  <si>
+    <t>บัง</t>
+  </si>
+  <si>
+    <t>โยะรุ</t>
+  </si>
+  <si>
+    <t>โยบิ</t>
+  </si>
+  <si>
+    <t>เกะสึโยบิ</t>
+  </si>
+  <si>
+    <t>คะโยบิ</t>
+  </si>
+  <si>
+    <t>ซุยโยบิ</t>
+  </si>
+  <si>
+    <t>โมะกุโยบิ</t>
+  </si>
+  <si>
+    <t>คินโยบิ</t>
+  </si>
+  <si>
+    <t>โดะโยบิ</t>
+  </si>
+  <si>
+    <t>นิชิโยบิ</t>
+  </si>
+  <si>
+    <t>ชู</t>
+  </si>
+  <si>
+    <t>อิสชูกัง</t>
+  </si>
+  <si>
+    <t>じかん</t>
+  </si>
+  <si>
+    <t>時間 </t>
+  </si>
+  <si>
+    <t>時 </t>
+  </si>
+  <si>
+    <t>暦 </t>
+  </si>
+  <si>
+    <t>ふん</t>
+  </si>
+  <si>
+    <t>分 </t>
+  </si>
+  <si>
+    <t>びょう</t>
+  </si>
+  <si>
+    <t>秒 </t>
+  </si>
+  <si>
+    <t>日 </t>
+  </si>
+  <si>
+    <t>月 </t>
+  </si>
+  <si>
+    <t>年 </t>
+  </si>
+  <si>
+    <t>昨日 </t>
+  </si>
+  <si>
+    <t>きょう</t>
+  </si>
+  <si>
+    <t>今日 </t>
+  </si>
+  <si>
+    <t>明日 </t>
+  </si>
+  <si>
+    <t>あさ</t>
+  </si>
+  <si>
+    <t>朝 </t>
+  </si>
+  <si>
+    <t>ひる</t>
+  </si>
+  <si>
+    <t>昼 </t>
+  </si>
+  <si>
+    <t>ゆうがた</t>
+  </si>
+  <si>
+    <t>夕方 </t>
+  </si>
+  <si>
+    <t>ばん</t>
+  </si>
+  <si>
+    <t>晩 </t>
+  </si>
+  <si>
+    <t>よる</t>
+  </si>
+  <si>
+    <t>夜 </t>
+  </si>
+  <si>
+    <t>ようび</t>
+  </si>
+  <si>
+    <t>曜日 </t>
+  </si>
+  <si>
+    <t>げつようび</t>
+  </si>
+  <si>
+    <t>月曜日 </t>
+  </si>
+  <si>
+    <t>かようび</t>
+  </si>
+  <si>
+    <t>火曜日 </t>
+  </si>
+  <si>
+    <t>すいようび</t>
+  </si>
+  <si>
+    <t>水曜日 </t>
+  </si>
+  <si>
+    <t>もくようび</t>
+  </si>
+  <si>
+    <t>木曜日 </t>
+  </si>
+  <si>
+    <t>きんようび</t>
+  </si>
+  <si>
+    <t>金曜日 </t>
+  </si>
+  <si>
+    <t>どようび</t>
+  </si>
+  <si>
+    <t>土曜日 </t>
+  </si>
+  <si>
+    <t>にちようび</t>
+  </si>
+  <si>
+    <t>日曜日 </t>
+  </si>
+  <si>
+    <t>しゅう</t>
+  </si>
+  <si>
+    <t>週 </t>
+  </si>
+  <si>
+    <t>いっしゅうかん</t>
+  </si>
+  <si>
+    <t>一週間 </t>
+  </si>
+  <si>
+    <t>とき, じ</t>
+  </si>
+  <si>
+    <t>こよみ, カレンダー</t>
+  </si>
+  <si>
+    <t>ひ, にち</t>
+  </si>
+  <si>
+    <t>つき, げつ</t>
+  </si>
+  <si>
+    <t>とし, ねん</t>
+  </si>
+  <si>
+    <t>きのう, さくじつ</t>
+  </si>
+  <si>
+    <t>あした, あす, みょうにち</t>
+  </si>
+  <si>
+    <t>Jikan</t>
+  </si>
+  <si>
+    <t>Toki,Ji</t>
+  </si>
+  <si>
+    <t>Koyomi,Karendā</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>Byō</t>
+  </si>
+  <si>
+    <t>Hi,Ni chi</t>
+  </si>
+  <si>
+    <t>Tsuki,Getsu</t>
+  </si>
+  <si>
+    <t>Toshi,Nen</t>
+  </si>
+  <si>
+    <t>Kinō,Sakujitsu</t>
+  </si>
+  <si>
+    <t>Kyō</t>
+  </si>
+  <si>
+    <t>Ashita,Mi younichi,Asu</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>Hiru</t>
+  </si>
+  <si>
+    <t>Yūgata</t>
+  </si>
+  <si>
+    <t>Ban</t>
+  </si>
+  <si>
+    <t>Yoru</t>
+  </si>
+  <si>
+    <t>Yōbi</t>
+  </si>
+  <si>
+    <t>Getsuyōbi</t>
+  </si>
+  <si>
+    <t>Kayōbi</t>
+  </si>
+  <si>
+    <t>Suiyōbi</t>
+  </si>
+  <si>
+    <t>Mokuyōbi</t>
+  </si>
+  <si>
+    <t>Kin'yōbi</t>
+  </si>
+  <si>
+    <t>Doyōbi</t>
+  </si>
+  <si>
+    <t>Nichiyōbi</t>
+  </si>
+  <si>
+    <t>Shū</t>
+  </si>
+  <si>
+    <t>Isshū kan</t>
+  </si>
+  <si>
+    <t>伯父, 叔父 </t>
+  </si>
+  <si>
+    <t>伯母, 叔母 </t>
+  </si>
+  <si>
+    <t>従兄弟, 従姉妹 , 従兄,  従弟, 従姉, 従妹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ครอบครัว </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พ่อแม่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ลูก, เด็ก </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พ่อ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> แม่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ภรรยา </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สามี </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พี่ชาย </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พี่สาว </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> น้องชาย </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> น้องสาว </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พี่ชายน้องชาย </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พี่สาวน้องสาว </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ปู่, ตา </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ย่า, ยาย </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หลาน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ลุง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ป้า </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ลูกพี่ลูกน้อง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หลานสาว </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หลานชาย </t>
+  </si>
+  <si>
+    <t>คะโซะกุ</t>
+  </si>
+  <si>
+    <t>เรียวชิน</t>
+  </si>
+  <si>
+    <t>โคะโดะโมะ</t>
+  </si>
+  <si>
+    <t>ฮะฮะ</t>
+  </si>
+  <si>
+    <t>สึมะ</t>
+  </si>
+  <si>
+    <t>อตโตะ</t>
+  </si>
+  <si>
+    <t>อะนิ</t>
+  </si>
+  <si>
+    <t>อะเนะ</t>
+  </si>
+  <si>
+    <t>โอะโตโตะ</t>
+  </si>
+  <si>
+    <t>อิโมโตะ</t>
+  </si>
+  <si>
+    <t>เคียวได</t>
+  </si>
+  <si>
+    <t>ชิไม</t>
+  </si>
+  <si>
+    <t>โซะฟุ</t>
+  </si>
+  <si>
+    <t>โซะโบะ</t>
+  </si>
+  <si>
+    <t>มะโงะ</t>
+  </si>
+  <si>
+    <t>โอะจิ</t>
+  </si>
+  <si>
+    <t>โอะบะ</t>
+  </si>
+  <si>
+    <t>อิโตะโกะ</t>
+  </si>
+  <si>
+    <t>เม</t>
+  </si>
+  <si>
+    <t>โอย</t>
+  </si>
+  <si>
+    <t>きた</t>
+  </si>
+  <si>
+    <t>ひがし</t>
+  </si>
+  <si>
+    <t>みなみ</t>
+  </si>
+  <si>
+    <t>にし</t>
+  </si>
+  <si>
+    <t>みぎ</t>
+  </si>
+  <si>
+    <t>ひだり</t>
+  </si>
+  <si>
+    <t>うえ</t>
+  </si>
+  <si>
+    <t>した</t>
+  </si>
+  <si>
+    <t>まえ</t>
+  </si>
+  <si>
+    <t>うしろ</t>
+  </si>
+  <si>
+    <t>むこう</t>
+  </si>
+  <si>
+    <t>ななめ</t>
+  </si>
+  <si>
+    <t>てまえ</t>
+  </si>
+  <si>
+    <t>ちかい</t>
+  </si>
+  <si>
+    <t>北 </t>
+  </si>
+  <si>
+    <t>東 </t>
+  </si>
+  <si>
+    <t>南 </t>
+  </si>
+  <si>
+    <t>西 </t>
+  </si>
+  <si>
+    <t>右 </t>
+  </si>
+  <si>
+    <t>左 </t>
+  </si>
+  <si>
+    <t>上 </t>
+  </si>
+  <si>
+    <t>下 </t>
+  </si>
+  <si>
+    <t>前 </t>
+  </si>
+  <si>
+    <t>後 </t>
+  </si>
+  <si>
+    <t>向こう </t>
+  </si>
+  <si>
+    <t>斜め </t>
+  </si>
+  <si>
+    <t>手前 </t>
+  </si>
+  <si>
+    <t>奥 </t>
+  </si>
+  <si>
+    <t>近い </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ทิศเหนือ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ทิศตะวันออก </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ทิศใต้ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ทิศตะวันตก </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ขวา </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ซ้าย </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> บน, ขึ้น </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ล่าง, ลง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ด้านหน้า </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ด้านหลัง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ด้านอื่น, ด้านตรงข้าม </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> แนวทแยง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ใกล้, อยู่ด้านหน้า </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ข้างในสุด </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ใกล้ ,ชิด </t>
+  </si>
+  <si>
+    <t>คิตะ</t>
+  </si>
+  <si>
+    <t>ฮิงะชิ</t>
+  </si>
+  <si>
+    <t>มินะมิ</t>
+  </si>
+  <si>
+    <t>นิชิ</t>
+  </si>
+  <si>
+    <t>มิงิ</t>
+  </si>
+  <si>
+    <t>ฮิดะริ</t>
+  </si>
+  <si>
+    <t>อุเอะ</t>
+  </si>
+  <si>
+    <t>ชิตะ</t>
+  </si>
+  <si>
+    <t>มะเอะ</t>
+  </si>
+  <si>
+    <t>อุชิโระ</t>
+  </si>
+  <si>
+    <t>มุโก</t>
+  </si>
+  <si>
+    <t>นะนะเมะ</t>
+  </si>
+  <si>
+    <t>เทะมะเอะ</t>
+  </si>
+  <si>
+    <t>ชิไก</t>
+  </si>
+  <si>
+    <t>のみもの</t>
+  </si>
+  <si>
+    <t>おちゃ</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>ぎゅうにゅう</t>
+  </si>
+  <si>
+    <t>さとう</t>
+  </si>
+  <si>
+    <t>しお</t>
+  </si>
+  <si>
+    <t>しょうゆ</t>
+  </si>
+  <si>
+    <t>飲み物 </t>
+  </si>
+  <si>
+    <t>お茶 </t>
+  </si>
+  <si>
+    <t>珈琲 </t>
+  </si>
+  <si>
+    <t>牛乳 </t>
+  </si>
+  <si>
+    <t>砂糖 </t>
+  </si>
+  <si>
+    <t>塩 </t>
+  </si>
+  <si>
+    <t>醤油 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เครื่องดื่ม </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ชา </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> กาแฟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> นม </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> น้ำตาล </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เกลือ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ซอสถั่วเหลือง </t>
+  </si>
+  <si>
+    <t>โนะมิโมะโนะ</t>
+  </si>
+  <si>
+    <t>โอะชะ</t>
+  </si>
+  <si>
+    <t>โคฮี</t>
+  </si>
+  <si>
+    <t>กีวนีว</t>
+  </si>
+  <si>
+    <t>ซะโต</t>
+  </si>
+  <si>
+    <t>ชิโอะ</t>
+  </si>
+  <si>
+    <t>โชยุ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1018,6 +2014,32 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0B0080"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0B0080"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFA55858"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFA55858"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
       <color rgb="FF0B0080"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
@@ -1043,7 +2065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1051,9 +2073,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1069,7 +2103,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1368,14 +2402,14 @@
   <dimension ref="A2:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="36.8984375" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,31 +3175,1082 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29942925-C469-4B7B-8A21-B57936AB119A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" t="s">
+        <v>600</v>
+      </c>
+      <c r="D7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C11" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" t="s">
+        <v>605</v>
+      </c>
+      <c r="D12" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>592</v>
+      </c>
+      <c r="C14" t="s">
+        <v>607</v>
+      </c>
+      <c r="D14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C15" t="s">
+        <v>608</v>
+      </c>
+      <c r="D15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B16" t="s">
+        <v>594</v>
+      </c>
+      <c r="C16" t="s">
+        <v>609</v>
+      </c>
+      <c r="D16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706FC362-48DC-458C-8E01-C3E9C43C65C9}">
-  <dimension ref="A2:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FE63FB-6DD9-4891-8FBD-49C8DFB625A6}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E6" t="s">
+        <v>500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" t="s">
+        <v>504</v>
+      </c>
+      <c r="H10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E11" t="s">
+        <v>505</v>
+      </c>
+      <c r="H11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" t="s">
+        <v>506</v>
+      </c>
+      <c r="H12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D13" t="s">
+        <v>429</v>
+      </c>
+      <c r="E13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E14" t="s">
+        <v>508</v>
+      </c>
+      <c r="H14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E15" t="s">
+        <v>509</v>
+      </c>
+      <c r="H15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" t="s">
+        <v>510</v>
+      </c>
+      <c r="H16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" t="s">
+        <v>511</v>
+      </c>
+      <c r="H17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" t="s">
+        <v>512</v>
+      </c>
+      <c r="H18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D19" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" t="s">
+        <v>513</v>
+      </c>
+      <c r="H19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E20" t="s">
+        <v>514</v>
+      </c>
+      <c r="H20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" t="s">
+        <v>515</v>
+      </c>
+      <c r="H21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22" t="s">
+        <v>438</v>
+      </c>
+      <c r="E22" t="s">
+        <v>516</v>
+      </c>
+      <c r="H22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" t="s">
+        <v>439</v>
+      </c>
+      <c r="E23" t="s">
+        <v>517</v>
+      </c>
+      <c r="H23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24" t="s">
+        <v>518</v>
+      </c>
+      <c r="H24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" t="s">
+        <v>441</v>
+      </c>
+      <c r="E25" t="s">
+        <v>519</v>
+      </c>
+      <c r="H25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" t="s">
+        <v>442</v>
+      </c>
+      <c r="E26" t="s">
+        <v>520</v>
+      </c>
+      <c r="H26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" t="s">
+        <v>443</v>
+      </c>
+      <c r="E27" t="s">
+        <v>521</v>
+      </c>
+      <c r="H27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A3285B-7369-4411-9C64-DB630BADB9A5}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C11" t="s">
+        <v>639</v>
+      </c>
+      <c r="D11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B12" t="s">
+        <v>633</v>
+      </c>
+      <c r="C12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D12" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B15" t="s">
+        <v>636</v>
+      </c>
+      <c r="C15" t="s">
+        <v>643</v>
+      </c>
+      <c r="D15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B16" t="s">
+        <v>637</v>
+      </c>
+      <c r="C16" t="s">
+        <v>644</v>
+      </c>
+      <c r="D16" t="s">
+        <v>651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706FC362-48DC-458C-8E01-C3E9C43C65C9}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>216</v>
@@ -2197,7 +4282,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>218</v>
@@ -2212,7 +4297,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>219</v>
@@ -2227,7 +4312,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>220</v>
@@ -2245,7 +4330,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>221</v>
@@ -2260,7 +4345,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>222</v>
@@ -2275,7 +4360,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>223</v>
@@ -2293,7 +4378,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>224</v>
@@ -2308,7 +4393,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>225</v>
@@ -2326,7 +4411,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>226</v>
@@ -2341,7 +4426,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>227</v>
@@ -2356,7 +4441,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>228</v>
@@ -2371,7 +4456,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>229</v>
@@ -2386,7 +4471,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>230</v>
@@ -2401,7 +4486,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>231</v>
@@ -2416,7 +4501,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>232</v>
@@ -2431,7 +4516,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>233</v>
@@ -2446,7 +4531,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>234</v>
@@ -2461,7 +4546,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>235</v>
@@ -2476,7 +4561,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>236</v>
@@ -2491,7 +4576,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>237</v>
@@ -2506,7 +4591,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>238</v>
@@ -2521,7 +4606,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>239</v>
@@ -2536,7 +4621,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>240</v>
@@ -2551,7 +4636,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" t="s">
         <v>316</v>
@@ -2560,7 +4645,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" t="s">
         <v>318</v>
@@ -2572,6 +4657,336 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623842C7-AC72-4608-BCF9-0FBA6365AF55}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10" t="s">
+        <v>533</v>
+      </c>
+      <c r="D10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" t="s">
+        <v>523</v>
+      </c>
+      <c r="C19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" t="s">
+        <v>544</v>
+      </c>
+      <c r="D21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" t="s">
+        <v>545</v>
+      </c>
+      <c r="D22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/docs/word/wordBook.xlsx
+++ b/docs/word/wordBook.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zytosk9a\Google Drive\GitHub\JapaneseWeb2019\docs\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF5873-6456-4962-81F8-7B2EFE2B2548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6429DCAD-07F4-42B3-8D8C-79286231470B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{1E221875-D46E-437E-ACFC-499D0A54EF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{1E221875-D46E-437E-ACFC-499D0A54EF42}"/>
   </bookViews>
   <sheets>
     <sheet name="animal" sheetId="3" r:id="rId1"/>
-    <sheet name="location" sheetId="4" r:id="rId2"/>
+    <sheet name="direction" sheetId="4" r:id="rId2"/>
     <sheet name="time" sheetId="8" r:id="rId3"/>
     <sheet name="food" sheetId="6" r:id="rId4"/>
     <sheet name="number" sheetId="5" r:id="rId5"/>
-    <sheet name="family" sheetId="7" r:id="rId6"/>
+    <sheet name="color" sheetId="9" r:id="rId6"/>
+    <sheet name="family" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="674">
   <si>
     <t>いぬ</t>
   </si>
@@ -761,81 +762,9 @@
     <t xml:space="preserve"> สิบ, ของสิบสิ่ง </t>
   </si>
   <si>
-    <t>เร, เซะโระ</t>
-  </si>
-  <si>
-    <t>อิชิ</t>
-  </si>
-  <si>
-    <t>นิ</t>
-  </si>
-  <si>
-    <t>ซัง</t>
-  </si>
-  <si>
-    <t>ยง, ชิ</t>
-  </si>
-  <si>
-    <t>โกะ</t>
-  </si>
-  <si>
-    <t>โระกุ</t>
-  </si>
-  <si>
-    <t>นะนะ, ชิชิ</t>
-  </si>
-  <si>
-    <t>ฮะชิ</t>
-  </si>
-  <si>
-    <t>คีว, คุ</t>
-  </si>
-  <si>
-    <t>จู</t>
-  </si>
-  <si>
-    <t>เฮียะกุ</t>
-  </si>
-  <si>
-    <t>เซ็ง</t>
-  </si>
-  <si>
-    <t>มัง</t>
-  </si>
-  <si>
     <t>โอะกุ</t>
   </si>
   <si>
-    <t>ฮิโตะสึ</t>
-  </si>
-  <si>
-    <t>ฟุตะสึ</t>
-  </si>
-  <si>
-    <t>มิตสึ</t>
-  </si>
-  <si>
-    <t>ยตสึ</t>
-  </si>
-  <si>
-    <t>อิสึสึ</t>
-  </si>
-  <si>
-    <t>มุตสึ</t>
-  </si>
-  <si>
-    <t>นะนะสึ</t>
-  </si>
-  <si>
-    <t>ยัตสึ</t>
-  </si>
-  <si>
-    <t>โคะโกะโนะสึ</t>
-  </si>
-  <si>
-    <t>โท</t>
-  </si>
-  <si>
     <t>れい</t>
   </si>
   <si>
@@ -1992,17 +1921,155 @@
   </si>
   <si>
     <t>โชยุ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ピンク </t>
+  </si>
+  <si>
+    <t xml:space="preserve">オレンジ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สี </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีแดง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีเหลือง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีเขียว </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีน้ำเงิน </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีม่วง </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีขาว </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีดำ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีชมพู </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีน้ำตาล </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีเทา </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สีส้ม </t>
+  </si>
+  <si>
+    <t>อิโระ</t>
+  </si>
+  <si>
+    <t>อะกะ</t>
+  </si>
+  <si>
+    <t>คิอิโระ</t>
+  </si>
+  <si>
+    <t>มิโดะริ</t>
+  </si>
+  <si>
+    <t>อะโอะ</t>
+  </si>
+  <si>
+    <t>มุระซะกิ</t>
+  </si>
+  <si>
+    <t>ชิโระ</t>
+  </si>
+  <si>
+    <t>คุโระ</t>
+  </si>
+  <si>
+    <t>โมโมะ</t>
+  </si>
+  <si>
+    <t>ชะอิโระ</t>
+  </si>
+  <si>
+    <t>ไฮอิโระ, เนะซุมิอิโระ</t>
+  </si>
+  <si>
+    <t>โอะเร็นจิ</t>
+  </si>
+  <si>
+    <t>いろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色 </t>
+  </si>
+  <si>
+    <t>あか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤 </t>
+  </si>
+  <si>
+    <t>きいろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色 </t>
+  </si>
+  <si>
+    <t>みどり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緑 </t>
+  </si>
+  <si>
+    <t>あお</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青 </t>
+  </si>
+  <si>
+    <t>むらさき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紫 </t>
+  </si>
+  <si>
+    <t>しろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白 </t>
+  </si>
+  <si>
+    <t>くろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒 </t>
+  </si>
+  <si>
+    <t>ちゃいろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">茶色 </t>
+  </si>
+  <si>
+    <t>はいいろ, ねずみいろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 灰色, 鼠色 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2044,6 +2111,14 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2062,10 +2137,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2085,9 +2161,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2103,7 +2186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2405,11 +2488,11 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.8984375" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3181,12 +3264,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.3984375" customWidth="1"/>
+    <col min="3" max="3" width="32.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3203,214 +3286,214 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" t="s">
+        <v>576</v>
+      </c>
+      <c r="D7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" t="s">
+        <v>579</v>
+      </c>
+      <c r="D10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" t="s">
+        <v>580</v>
+      </c>
+      <c r="D11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B12" t="s">
         <v>566</v>
       </c>
-      <c r="B2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B13" t="s">
         <v>567</v>
       </c>
-      <c r="B3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" t="s">
         <v>568</v>
       </c>
-      <c r="B4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" t="s">
         <v>569</v>
       </c>
-      <c r="B5" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C15" t="s">
+        <v>584</v>
+      </c>
+      <c r="D15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" t="s">
         <v>570</v>
       </c>
-      <c r="B6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D16" t="s">
         <v>599</v>
-      </c>
-      <c r="D6" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="B7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C7" t="s">
-        <v>600</v>
-      </c>
-      <c r="D7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="B8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C8" t="s">
-        <v>601</v>
-      </c>
-      <c r="D8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="B9" t="s">
-        <v>587</v>
-      </c>
-      <c r="C9" t="s">
-        <v>602</v>
-      </c>
-      <c r="D9" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="B10" t="s">
-        <v>588</v>
-      </c>
-      <c r="C10" t="s">
-        <v>603</v>
-      </c>
-      <c r="D10" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="B11" t="s">
-        <v>589</v>
-      </c>
-      <c r="C11" t="s">
-        <v>604</v>
-      </c>
-      <c r="D11" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B12" t="s">
-        <v>590</v>
-      </c>
-      <c r="C12" t="s">
-        <v>605</v>
-      </c>
-      <c r="D12" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="B13" t="s">
-        <v>591</v>
-      </c>
-      <c r="C13" t="s">
-        <v>606</v>
-      </c>
-      <c r="D13" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="B14" t="s">
-        <v>592</v>
-      </c>
-      <c r="C14" t="s">
-        <v>607</v>
-      </c>
-      <c r="D14" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" t="s">
-        <v>593</v>
-      </c>
-      <c r="C15" t="s">
-        <v>608</v>
-      </c>
-      <c r="D15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="B16" t="s">
-        <v>594</v>
-      </c>
-      <c r="C16" t="s">
-        <v>609</v>
-      </c>
-      <c r="D16" t="s">
-        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -3422,18 +3505,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FE63FB-6DD9-4891-8FBD-49C8DFB625A6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="7" max="7" width="25.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3450,524 +3533,524 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E5" t="s">
+        <v>475</v>
+      </c>
+      <c r="H5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E6" t="s">
+        <v>476</v>
+      </c>
+      <c r="H6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>478</v>
+      </c>
+      <c r="H8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" t="s">
+        <v>479</v>
+      </c>
+      <c r="H9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" t="s">
+        <v>480</v>
+      </c>
+      <c r="H10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" t="s">
+        <v>481</v>
+      </c>
+      <c r="H11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" t="s">
+        <v>482</v>
+      </c>
+      <c r="H12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" t="s">
+        <v>483</v>
+      </c>
+      <c r="H13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E14" t="s">
+        <v>484</v>
+      </c>
+      <c r="H14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E16" t="s">
+        <v>486</v>
+      </c>
+      <c r="H16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" t="s">
         <v>444</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" t="s">
+        <v>487</v>
+      </c>
+      <c r="H17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" t="s">
+        <v>488</v>
+      </c>
+      <c r="H18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" t="s">
+        <v>490</v>
+      </c>
+      <c r="H20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" t="s">
+        <v>491</v>
+      </c>
+      <c r="H21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B22" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22" t="s">
+        <v>492</v>
+      </c>
+      <c r="H22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E23" t="s">
+        <v>493</v>
+      </c>
+      <c r="H23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24" t="s">
+        <v>494</v>
+      </c>
+      <c r="H24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C25" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" t="s">
+        <v>417</v>
+      </c>
+      <c r="E25" t="s">
+        <v>495</v>
+      </c>
+      <c r="H25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" t="s">
+        <v>496</v>
+      </c>
+      <c r="H26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C27" t="s">
         <v>392</v>
       </c>
-      <c r="D2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D27" t="s">
         <v>419</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E27" t="s">
         <v>497</v>
       </c>
-      <c r="H3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H27" t="s">
         <v>394</v>
-      </c>
-      <c r="D4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E4" t="s">
-        <v>498</v>
-      </c>
-      <c r="H4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" t="s">
-        <v>499</v>
-      </c>
-      <c r="H5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="B6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" t="s">
-        <v>422</v>
-      </c>
-      <c r="E6" t="s">
-        <v>500</v>
-      </c>
-      <c r="H6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" t="s">
-        <v>398</v>
-      </c>
-      <c r="D8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E8" t="s">
-        <v>502</v>
-      </c>
-      <c r="H8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B9" t="s">
-        <v>454</v>
-      </c>
-      <c r="C9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D9" t="s">
-        <v>425</v>
-      </c>
-      <c r="E9" t="s">
-        <v>503</v>
-      </c>
-      <c r="H9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>426</v>
-      </c>
-      <c r="E10" t="s">
-        <v>504</v>
-      </c>
-      <c r="H10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" t="s">
-        <v>505</v>
-      </c>
-      <c r="H11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C12" t="s">
-        <v>402</v>
-      </c>
-      <c r="D12" t="s">
-        <v>428</v>
-      </c>
-      <c r="E12" t="s">
-        <v>506</v>
-      </c>
-      <c r="H12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D13" t="s">
-        <v>429</v>
-      </c>
-      <c r="E13" t="s">
-        <v>507</v>
-      </c>
-      <c r="H13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" t="s">
-        <v>462</v>
-      </c>
-      <c r="C14" t="s">
-        <v>404</v>
-      </c>
-      <c r="D14" t="s">
-        <v>430</v>
-      </c>
-      <c r="E14" t="s">
-        <v>508</v>
-      </c>
-      <c r="H14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C15" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" t="s">
-        <v>431</v>
-      </c>
-      <c r="E15" t="s">
-        <v>509</v>
-      </c>
-      <c r="H15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" t="s">
-        <v>466</v>
-      </c>
-      <c r="C16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D16" t="s">
-        <v>432</v>
-      </c>
-      <c r="E16" t="s">
-        <v>510</v>
-      </c>
-      <c r="H16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B17" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" t="s">
-        <v>406</v>
-      </c>
-      <c r="D17" t="s">
-        <v>433</v>
-      </c>
-      <c r="E17" t="s">
-        <v>511</v>
-      </c>
-      <c r="H17" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B18" t="s">
-        <v>470</v>
-      </c>
-      <c r="C18" t="s">
-        <v>407</v>
-      </c>
-      <c r="D18" t="s">
-        <v>434</v>
-      </c>
-      <c r="E18" t="s">
-        <v>512</v>
-      </c>
-      <c r="H18" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B19" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D19" t="s">
-        <v>435</v>
-      </c>
-      <c r="E19" t="s">
-        <v>513</v>
-      </c>
-      <c r="H19" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B20" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E20" t="s">
-        <v>514</v>
-      </c>
-      <c r="H20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B21" t="s">
-        <v>476</v>
-      </c>
-      <c r="C21" t="s">
-        <v>410</v>
-      </c>
-      <c r="D21" t="s">
-        <v>437</v>
-      </c>
-      <c r="E21" t="s">
-        <v>515</v>
-      </c>
-      <c r="H21" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D22" t="s">
-        <v>438</v>
-      </c>
-      <c r="E22" t="s">
-        <v>516</v>
-      </c>
-      <c r="H22" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B23" t="s">
-        <v>480</v>
-      </c>
-      <c r="C23" t="s">
-        <v>412</v>
-      </c>
-      <c r="D23" t="s">
-        <v>439</v>
-      </c>
-      <c r="E23" t="s">
-        <v>517</v>
-      </c>
-      <c r="H23" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B24" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D24" t="s">
-        <v>440</v>
-      </c>
-      <c r="E24" t="s">
-        <v>518</v>
-      </c>
-      <c r="H24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" t="s">
-        <v>414</v>
-      </c>
-      <c r="D25" t="s">
-        <v>441</v>
-      </c>
-      <c r="E25" t="s">
-        <v>519</v>
-      </c>
-      <c r="H25" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="B26" t="s">
-        <v>486</v>
-      </c>
-      <c r="C26" t="s">
-        <v>415</v>
-      </c>
-      <c r="D26" t="s">
-        <v>442</v>
-      </c>
-      <c r="E26" t="s">
-        <v>520</v>
-      </c>
-      <c r="H26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B27" t="s">
-        <v>488</v>
-      </c>
-      <c r="C27" t="s">
-        <v>416</v>
-      </c>
-      <c r="D27" t="s">
-        <v>443</v>
-      </c>
-      <c r="E27" t="s">
-        <v>521</v>
-      </c>
-      <c r="H27" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3980,17 +4063,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A3285B-7369-4411-9C64-DB630BADB9A5}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,214 +4090,214 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
         <v>321</v>
       </c>
-      <c r="B2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" t="s">
         <v>322</v>
       </c>
-      <c r="B3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
         <v>323</v>
       </c>
-      <c r="B4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" t="s">
         <v>324</v>
       </c>
-      <c r="B5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" t="s">
         <v>325</v>
       </c>
-      <c r="B6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" t="s">
         <v>326</v>
       </c>
-      <c r="B7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" t="s">
         <v>327</v>
       </c>
-      <c r="B8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" t="s">
         <v>328</v>
       </c>
-      <c r="B9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C10" t="s">
+        <v>614</v>
+      </c>
+      <c r="D10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" t="s">
+        <v>608</v>
+      </c>
+      <c r="C11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>610</v>
+      </c>
+      <c r="C13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D13" t="s">
         <v>624</v>
       </c>
-      <c r="B10" t="s">
-        <v>631</v>
-      </c>
-      <c r="C10" t="s">
-        <v>638</v>
-      </c>
-      <c r="D10" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B14" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14" t="s">
+        <v>618</v>
+      </c>
+      <c r="D14" t="s">
         <v>625</v>
       </c>
-      <c r="B11" t="s">
-        <v>632</v>
-      </c>
-      <c r="C11" t="s">
-        <v>639</v>
-      </c>
-      <c r="D11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" t="s">
+        <v>619</v>
+      </c>
+      <c r="D15" t="s">
         <v>626</v>
       </c>
-      <c r="B12" t="s">
-        <v>633</v>
-      </c>
-      <c r="C12" t="s">
-        <v>640</v>
-      </c>
-      <c r="D12" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B16" t="s">
+        <v>613</v>
+      </c>
+      <c r="C16" t="s">
+        <v>620</v>
+      </c>
+      <c r="D16" t="s">
         <v>627</v>
-      </c>
-      <c r="B13" t="s">
-        <v>634</v>
-      </c>
-      <c r="C13" t="s">
-        <v>641</v>
-      </c>
-      <c r="D13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="B14" t="s">
-        <v>635</v>
-      </c>
-      <c r="C14" t="s">
-        <v>642</v>
-      </c>
-      <c r="D14" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="B15" t="s">
-        <v>636</v>
-      </c>
-      <c r="C15" t="s">
-        <v>643</v>
-      </c>
-      <c r="D15" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="B16" t="s">
-        <v>637</v>
-      </c>
-      <c r="C16" t="s">
-        <v>644</v>
-      </c>
-      <c r="D16" t="s">
-        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -4228,13 +4311,14 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="E1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,405 +4337,411 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
         <v>216</v>
       </c>
-      <c r="C2" t="s">
-        <v>241</v>
-      </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s">
         <v>217</v>
       </c>
-      <c r="C3" t="s">
-        <v>242</v>
-      </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
         <v>218</v>
       </c>
-      <c r="C4" t="s">
-        <v>243</v>
-      </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
         <v>219</v>
       </c>
-      <c r="C5" t="s">
-        <v>244</v>
-      </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
         <v>220</v>
       </c>
-      <c r="C6" t="s">
-        <v>245</v>
-      </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
         <v>221</v>
       </c>
-      <c r="C7" t="s">
-        <v>246</v>
-      </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" t="s">
         <v>222</v>
       </c>
-      <c r="C8" t="s">
-        <v>247</v>
-      </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
         <v>223</v>
       </c>
-      <c r="C9" t="s">
-        <v>248</v>
-      </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
         <v>224</v>
       </c>
-      <c r="C10" t="s">
-        <v>249</v>
-      </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
         <v>225</v>
       </c>
-      <c r="C11" t="s">
-        <v>250</v>
-      </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="s">
         <v>226</v>
       </c>
-      <c r="C12" t="s">
-        <v>251</v>
-      </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
         <v>227</v>
       </c>
-      <c r="C13" t="s">
-        <v>252</v>
-      </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
         <v>228</v>
       </c>
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
         <v>229</v>
       </c>
-      <c r="C15" t="s">
-        <v>254</v>
-      </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" t="s">
         <v>230</v>
       </c>
-      <c r="C16" t="s">
-        <v>255</v>
-      </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" t="s">
         <v>231</v>
       </c>
-      <c r="C17" t="s">
-        <v>256</v>
-      </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" t="s">
         <v>232</v>
       </c>
-      <c r="C18" t="s">
-        <v>257</v>
-      </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" t="s">
         <v>233</v>
       </c>
-      <c r="C19" t="s">
-        <v>258</v>
-      </c>
       <c r="D19" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" t="s">
         <v>234</v>
       </c>
-      <c r="C20" t="s">
-        <v>259</v>
-      </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" t="s">
         <v>235</v>
       </c>
-      <c r="C21" t="s">
-        <v>260</v>
-      </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="E21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" t="s">
         <v>236</v>
       </c>
-      <c r="C22" t="s">
-        <v>261</v>
-      </c>
       <c r="D22" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="E22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" t="s">
         <v>237</v>
       </c>
-      <c r="C23" t="s">
-        <v>262</v>
-      </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="E23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" t="s">
         <v>238</v>
       </c>
-      <c r="C24" t="s">
-        <v>263</v>
-      </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="E24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" t="s">
         <v>239</v>
       </c>
-      <c r="C25" t="s">
-        <v>264</v>
-      </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" t="s">
         <v>240</v>
       </c>
-      <c r="C26" t="s">
-        <v>265</v>
-      </c>
       <c r="D26" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>292</v>
+      </c>
       <c r="D27" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="E27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
       <c r="D28" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E28" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4661,20 +4751,220 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E544FE-7F14-44B8-A9A4-6D7BD9E2D359}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" t="s">
+        <v>634</v>
+      </c>
+      <c r="E7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D9" t="s">
+        <v>636</v>
+      </c>
+      <c r="E9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" t="s">
+        <v>669</v>
+      </c>
+      <c r="D10" t="s">
+        <v>637</v>
+      </c>
+      <c r="E10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" t="s">
+        <v>671</v>
+      </c>
+      <c r="D12" t="s">
+        <v>639</v>
+      </c>
+      <c r="E12" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D13" t="s">
+        <v>640</v>
+      </c>
+      <c r="E13" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D14" t="s">
+        <v>641</v>
+      </c>
+      <c r="E14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" tooltip="ピンク (ไม่มีหน้า)" display="https://th.wiktionary.org/w/index.php?title=%E3%83%94%E3%83%B3%E3%82%AF&amp;action=edit&amp;redlink=1" xr:uid="{C93CC4E9-E3B2-4845-9746-4D4F62759825}"/>
+    <hyperlink ref="B14" r:id="rId2" tooltip="オレンジ (ไม่มีหน้า)" display="https://th.wiktionary.org/w/index.php?title=%E3%82%AA%E3%83%AC%E3%83%B3%E3%82%B8&amp;action=edit&amp;redlink=1" xr:uid="{7049C3DB-3643-4B10-9812-5D7C02ED05C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623842C7-AC72-4608-BCF9-0FBA6365AF55}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.8984375" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,298 +4981,298 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" t="s">
         <v>353</v>
       </c>
-      <c r="B2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>377</v>
-      </c>
       <c r="C5" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="D5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
         <v>357</v>
       </c>
-      <c r="B6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D10" t="s">
         <v>529</v>
       </c>
-      <c r="D6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" t="s">
         <v>530</v>
       </c>
-      <c r="D7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D12" t="s">
         <v>531</v>
       </c>
-      <c r="D8" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" t="s">
         <v>532</v>
       </c>
-      <c r="D9" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D14" t="s">
         <v>533</v>
       </c>
-      <c r="D10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" t="s">
         <v>534</v>
       </c>
-      <c r="D11" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>515</v>
+      </c>
+      <c r="D16" t="s">
         <v>535</v>
       </c>
-      <c r="D12" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" t="s">
         <v>536</v>
       </c>
-      <c r="D13" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" t="s">
-        <v>386</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D18" t="s">
         <v>537</v>
       </c>
-      <c r="D14" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" t="s">
         <v>366</v>
       </c>
-      <c r="B15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C15" t="s">
-        <v>538</v>
-      </c>
-      <c r="D15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C21" t="s">
+        <v>520</v>
+      </c>
+      <c r="D21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" t="s">
         <v>367</v>
       </c>
-      <c r="B16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C16" t="s">
-        <v>539</v>
-      </c>
-      <c r="D16" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" t="s">
-        <v>389</v>
-      </c>
-      <c r="C17" t="s">
-        <v>540</v>
-      </c>
-      <c r="D17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B18" t="s">
-        <v>522</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
+        <v>521</v>
+      </c>
+      <c r="D22" t="s">
         <v>541</v>
-      </c>
-      <c r="D18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B19" t="s">
-        <v>523</v>
-      </c>
-      <c r="C19" t="s">
-        <v>542</v>
-      </c>
-      <c r="D19" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B20" t="s">
-        <v>524</v>
-      </c>
-      <c r="C20" t="s">
-        <v>543</v>
-      </c>
-      <c r="D20" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B21" t="s">
-        <v>390</v>
-      </c>
-      <c r="C21" t="s">
-        <v>544</v>
-      </c>
-      <c r="D21" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" t="s">
-        <v>545</v>
-      </c>
-      <c r="D22" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>
